--- a/document/sys_common_lang.xlsx
+++ b/document/sys_common_lang.xlsx
@@ -8,32 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\App Develop\VS2023\LaplaceNet\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6D4152F-DBF4-4307-A0CC-D68F118CF729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A681E2C-0CA5-4377-8A2A-86990B31A9EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sys_common_lang" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">sys_common_lang!$A$1:$E$160</definedName>
+  </definedNames>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="197">
   <si>
     <t>id</t>
   </si>
@@ -53,34 +43,199 @@
     <t>zh-cn</t>
   </si>
   <si>
+    <t>menu.accounting</t>
+  </si>
+  <si>
+    <t>ja</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>menu.charts</t>
+  </si>
+  <si>
+    <t>图表</t>
+  </si>
+  <si>
+    <t>グラフ</t>
+  </si>
+  <si>
+    <t>Charts</t>
+  </si>
+  <si>
+    <t>menu.controlling</t>
+  </si>
+  <si>
+    <t>menu.ec</t>
+  </si>
+  <si>
+    <t>menu.FicoBomCosting</t>
+  </si>
+  <si>
+    <t>menu.ficoMaster</t>
+  </si>
+  <si>
+    <t>menu.FicoPeriod</t>
+  </si>
+  <si>
+    <t>menu.FicoPrctr</t>
+  </si>
+  <si>
+    <t>menu.FicoTitle</t>
+  </si>
+  <si>
+    <t>menu.financial</t>
+  </si>
+  <si>
     <t>menu.flow</t>
   </si>
   <si>
     <t>工作流</t>
   </si>
   <si>
-    <t>ja</t>
-  </si>
-  <si>
     <t>フロー</t>
   </si>
   <si>
-    <t>en</t>
-  </si>
-  <si>
     <t>Flow</t>
   </si>
   <si>
-    <t>menu.charts</t>
-  </si>
-  <si>
-    <t>图表</t>
-  </si>
-  <si>
-    <t>グラフ</t>
-  </si>
-  <si>
-    <t>Charts</t>
+    <t>menu.funInlineTmpl</t>
+  </si>
+  <si>
+    <t>menu.funMaslvTmpl</t>
+  </si>
+  <si>
+    <t>menu.funtmpl</t>
+  </si>
+  <si>
+    <t>menu.funtoPoivtTmpl</t>
+  </si>
+  <si>
+    <t>行列转置</t>
+  </si>
+  <si>
+    <t>menu.materials</t>
+  </si>
+  <si>
+    <t>menu.MmInventory</t>
+  </si>
+  <si>
+    <t>menu.mmMaster</t>
+  </si>
+  <si>
+    <t>menu.MmMats</t>
+  </si>
+  <si>
+    <t>menu.MmPurchasing</t>
+  </si>
+  <si>
+    <t>menu.PpCauseType</t>
+  </si>
+  <si>
+    <t>原因类别</t>
+  </si>
+  <si>
+    <t>理由カテゴリー</t>
+  </si>
+  <si>
+    <t>menu.PpDefectBad</t>
+  </si>
+  <si>
+    <t>menu.PpLines</t>
+  </si>
+  <si>
+    <t>生产班组</t>
+  </si>
+  <si>
+    <t>作業区</t>
+  </si>
+  <si>
+    <t>menu.PpManhours</t>
+  </si>
+  <si>
+    <t>生产工时</t>
+  </si>
+  <si>
+    <t>ST</t>
+  </si>
+  <si>
+    <t>menu.ppMaster</t>
+  </si>
+  <si>
+    <t>menu.PpMfgOrder</t>
+  </si>
+  <si>
+    <t>menu.ppOutput</t>
+  </si>
+  <si>
+    <t>menu.PpOutputMaster</t>
+  </si>
+  <si>
+    <t>menu.PpOutputSlave</t>
+  </si>
+  <si>
+    <t>menu.PpRountings</t>
+  </si>
+  <si>
+    <t>menu.PpShopfloor</t>
+  </si>
+  <si>
+    <t>menu.production</t>
+  </si>
+  <si>
+    <t>menu.QmCheckAql</t>
+  </si>
+  <si>
+    <t>抽样标准</t>
+  </si>
+  <si>
+    <t>AQL</t>
+  </si>
+  <si>
+    <t>menu.qmIqc</t>
+  </si>
+  <si>
+    <t>menu.qmMaster</t>
+  </si>
+  <si>
+    <t>menu.qmQa</t>
+  </si>
+  <si>
+    <t>menu.qmQccost</t>
+  </si>
+  <si>
+    <t>menu.quality</t>
+  </si>
+  <si>
+    <t>menu.sales</t>
+  </si>
+  <si>
+    <t>menu.sdBilling</t>
+  </si>
+  <si>
+    <t>menu.sdDocs</t>
+  </si>
+  <si>
+    <t>menu.sdMaster</t>
+  </si>
+  <si>
+    <t>menu.sdSerial</t>
+  </si>
+  <si>
+    <t>menu.SysEtDict</t>
+  </si>
+  <si>
+    <t>电子技术辞典</t>
+  </si>
+  <si>
+    <t>電子技術用語</t>
+  </si>
+  <si>
+    <t>menu.sysWorkFlow</t>
+  </si>
+  <si>
+    <t>menu.sysWorkFlowStep</t>
   </si>
   <si>
     <t>menu.usercharts</t>
@@ -95,43 +250,395 @@
     <t>User</t>
   </si>
   <si>
-    <t>menu.PpLines</t>
-  </si>
-  <si>
-    <t>生产班组</t>
-  </si>
-  <si>
-    <t>作業区</t>
+    <t>menu.workflow</t>
+  </si>
+  <si>
+    <t>menu.FicoExchangeRate</t>
+  </si>
+  <si>
+    <t>汇率</t>
+  </si>
+  <si>
+    <t>為替レート</t>
+  </si>
+  <si>
+    <t>menu.FicoWagerates</t>
+  </si>
+  <si>
+    <t>工厂工资率</t>
+  </si>
+  <si>
+    <t>工場賃金率</t>
+  </si>
+  <si>
+    <t>menu.FicoMonthInventory</t>
+  </si>
+  <si>
+    <t>月度存货</t>
+  </si>
+  <si>
+    <t>月間在庫</t>
+  </si>
+  <si>
+    <t>menu.FicoDeptConsuming</t>
+  </si>
+  <si>
+    <t>部门消耗</t>
+  </si>
+  <si>
+    <t>部門消費</t>
+  </si>
+  <si>
+    <t>menu.FicoBudgetactualCost</t>
+  </si>
+  <si>
+    <t>预算实际</t>
+  </si>
+  <si>
+    <t>予算実績</t>
+  </si>
+  <si>
+    <t>Accounting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会计核算</t>
+  </si>
+  <si>
+    <t>会計管理</t>
+  </si>
+  <si>
+    <t>管理会计</t>
+  </si>
+  <si>
+    <t>管理会計</t>
+  </si>
+  <si>
+    <t>设变</t>
+  </si>
+  <si>
+    <t>設変</t>
+  </si>
+  <si>
+    <t>BOM核算</t>
+  </si>
+  <si>
+    <t>BOM原価</t>
+  </si>
+  <si>
+    <t>主数据</t>
+  </si>
+  <si>
+    <t>マスタデータ</t>
+  </si>
+  <si>
+    <t>财务期间</t>
+  </si>
+  <si>
+    <t>財務期間</t>
+  </si>
+  <si>
+    <t>period</t>
+  </si>
+  <si>
+    <t>利润中心</t>
+  </si>
+  <si>
+    <t>利益センター</t>
+  </si>
+  <si>
+    <t>会计科目</t>
+  </si>
+  <si>
+    <t>勘定コード</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>财务会计</t>
+  </si>
+  <si>
+    <t>財務会計</t>
+  </si>
+  <si>
+    <t>行内编辑</t>
+  </si>
+  <si>
+    <t>機能テンプレート</t>
+  </si>
+  <si>
+    <t>主从表</t>
+  </si>
+  <si>
+    <t>インライン編集</t>
+  </si>
+  <si>
+    <t>功能模板</t>
+  </si>
+  <si>
+    <t>イニシエータ</t>
+  </si>
+  <si>
+    <t>launch</t>
+  </si>
+  <si>
+    <t>マスタスレーブテーブル</t>
+  </si>
+  <si>
+    <t>物料</t>
+  </si>
+  <si>
+    <t>品目マスタ</t>
+  </si>
+  <si>
+    <t>库存</t>
+  </si>
+  <si>
+    <t>在庫管理</t>
+  </si>
+  <si>
+    <t>品目</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>采购</t>
+  </si>
+  <si>
+    <t>購買管理</t>
+  </si>
+  <si>
+    <t>Purchasing</t>
+  </si>
+  <si>
+    <t>缺陷不良</t>
+  </si>
+  <si>
+    <t>製造不良</t>
+  </si>
+  <si>
+    <t>Defects</t>
+  </si>
+  <si>
+    <t>生产订单</t>
+  </si>
+  <si>
+    <t>指図</t>
+  </si>
+  <si>
+    <t>OPH</t>
+  </si>
+  <si>
+    <t>OPHma</t>
+  </si>
+  <si>
+    <t>OPHslv</t>
+  </si>
+  <si>
+    <t>工艺路线</t>
+  </si>
+  <si>
+    <t>Rountings</t>
+  </si>
+  <si>
+    <t>车间</t>
+  </si>
+  <si>
+    <t>作業場所</t>
+  </si>
+  <si>
+    <t>生产</t>
+  </si>
+  <si>
+    <t>生産プロセス</t>
+  </si>
+  <si>
+    <t>Production</t>
+  </si>
+  <si>
+    <t>来料检验</t>
+  </si>
+  <si>
+    <t>納入検査</t>
+  </si>
+  <si>
+    <t>IQC</t>
+  </si>
+  <si>
+    <t>出货检验</t>
+  </si>
+  <si>
+    <t>出荷検査</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>品质成本</t>
+  </si>
+  <si>
+    <t>品質原価</t>
+  </si>
+  <si>
+    <t>Qccost</t>
+  </si>
+  <si>
+    <t>质量</t>
+  </si>
+  <si>
+    <t>品質管理</t>
+  </si>
+  <si>
+    <t>销售</t>
+  </si>
+  <si>
+    <t>販売管理</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>凭证</t>
+  </si>
+  <si>
+    <t>伝票</t>
+  </si>
+  <si>
+    <t>清单</t>
+  </si>
+  <si>
+    <t>リスト</t>
+  </si>
+  <si>
+    <t>List</t>
+  </si>
+  <si>
+    <t>序列号</t>
+  </si>
+  <si>
+    <t>シリアル番号</t>
+  </si>
+  <si>
+    <t>审批</t>
+  </si>
+  <si>
+    <t>承認</t>
+  </si>
+  <si>
+    <t>Approval</t>
+  </si>
+  <si>
+    <t>任务</t>
+  </si>
+  <si>
+    <t>タスク</t>
+  </si>
+  <si>
+    <t>task</t>
+  </si>
+  <si>
+    <t>工作流程</t>
+  </si>
+  <si>
+    <t>ワークフロー</t>
+  </si>
+  <si>
+    <t>Controlling Accounting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Engineering Change</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOM Costing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Master Data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Profit Center</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Financial Accounting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function template</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inline editing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Master-slave table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Material Mgt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inventory Mgt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cause Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Shop Floor</t>
-  </si>
-  <si>
-    <t>menu.PpMfgOrder</t>
-  </si>
-  <si>
-    <t>生产工单</t>
-  </si>
-  <si>
-    <t>指図</t>
-  </si>
-  <si>
-    <t>Order</t>
-  </si>
-  <si>
-    <t>menu.PpManhours</t>
-  </si>
-  <si>
-    <t>生产工时</t>
-  </si>
-  <si>
-    <t>ST</t>
-  </si>
-  <si>
-    <t>menu.PpCauseType</t>
-  </si>
-  <si>
-    <t>原因类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pro Order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quality Mgt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales document</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Serial number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ET Dict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Work Flow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exchange Rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Factory wage rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monthly inventory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dept consumption</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Budget actual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -141,7 +648,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -151,6 +658,11 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -180,9 +692,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -497,19 +1010,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E160"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="D145" sqref="D145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -529,9 +1038,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
+        <v>2708</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -539,351 +1048,2697 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
+      <c r="D2" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="E2" s="1">
-        <v>44942.658889351849</v>
+        <v>44942.658889317128</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>2709</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>93</v>
       </c>
       <c r="E3" s="1">
-        <v>44942.658889351849</v>
+        <v>44942.658889317128</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>2710</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
-        <v>11</v>
+      <c r="D4" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="E4" s="1">
-        <v>44942.658889351849</v>
+        <v>44942.658889317128</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>2711</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E5" s="1">
-        <v>44965.466447534731</v>
+        <v>44942.658889317128</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
+        <v>2712</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E6" s="1">
-        <v>44965.466447534731</v>
+        <v>44942.658889317128</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6</v>
+        <v>2713</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
       <c r="E7" s="1">
-        <v>44965.466447534731</v>
+        <v>44942.658889317128</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7</v>
+        <v>2714</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="E8" s="1">
-        <v>44965.467521678242</v>
+        <v>44942.658889317128</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>8</v>
+        <v>2715</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="E9" s="1">
-        <v>44965.467521678242</v>
+        <v>44942.658889317128</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>9</v>
+        <v>2716</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s">
-        <v>19</v>
+        <v>13</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>173</v>
       </c>
       <c r="E10" s="1">
-        <v>44965.467521678242</v>
+        <v>44942.658889317128</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>10</v>
+        <v>2717</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="E11" s="1">
-        <v>44966.632079826391</v>
+        <v>44942.658889317128</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>11</v>
+        <v>2718</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="E12" s="1">
-        <v>44966.632079826391</v>
+        <v>44942.658889317128</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>12</v>
+        <v>2719</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
+        <v>14</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="E13" s="1">
-        <v>44966.632079826391</v>
+        <v>44942.658889317128</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>13</v>
+        <v>2720</v>
       </c>
       <c r="B14" t="s">
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>98</v>
       </c>
       <c r="E14" s="1">
-        <v>44966.703639814819</v>
+        <v>44942.658889317128</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>14</v>
+        <v>2721</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="E15" s="1">
-        <v>44966.703639814819</v>
+        <v>44942.658889317128</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
+        <v>2722</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>27</v>
+      <c r="D16" s="2" t="s">
+        <v>175</v>
       </c>
       <c r="E16" s="1">
-        <v>44966.703639814819</v>
+        <v>44942.658889317128</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
+        <v>2726</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" t="s">
-        <v>28</v>
-      </c>
       <c r="D17" t="s">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="E17" s="1">
-        <v>44966.718927974536</v>
+        <v>44942.658889317128</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>17</v>
+        <v>2727</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="E18" s="1">
-        <v>44966.718927974536</v>
+        <v>44942.658889317128</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>18</v>
+        <v>2728</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" t="s">
-        <v>30</v>
+        <v>16</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>176</v>
       </c>
       <c r="E19" s="1">
-        <v>44966.718927974536</v>
+        <v>44942.658889317128</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>19</v>
+        <v>2729</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D20" t="s">
-        <v>32</v>
+        <v>102</v>
       </c>
       <c r="E20" s="1">
-        <v>44967.332310266196</v>
+        <v>44942.658889317128</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>20</v>
+        <v>2730</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D21" t="s">
-        <v>32</v>
+        <v>103</v>
       </c>
       <c r="E21" s="1">
-        <v>44967.332310416663</v>
+        <v>44942.658889317128</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
+        <v>2731</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" t="s">
+        <v>104</v>
+      </c>
+      <c r="E22" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2732</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" t="s">
+        <v>105</v>
+      </c>
+      <c r="E23" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2733</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" t="s">
+        <v>106</v>
+      </c>
+      <c r="E24" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2734</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E25" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2735</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" t="s">
+        <v>107</v>
+      </c>
+      <c r="E26" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2736</v>
+      </c>
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" t="s">
+        <v>108</v>
+      </c>
+      <c r="E27" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2737</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" t="s">
+        <v>109</v>
+      </c>
+      <c r="E28" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2738</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" t="s">
+        <v>110</v>
+      </c>
+      <c r="E29" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2739</v>
+      </c>
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" t="s">
+        <v>111</v>
+      </c>
+      <c r="E30" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2740</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E31" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2741</v>
+      </c>
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" t="s">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="D32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" s="1">
+        <v>44942.658889351849</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>2742</v>
+      </c>
+      <c r="B33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" s="1">
+        <v>44942.658889351849</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2743</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2744</v>
+      </c>
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" t="s">
+        <v>112</v>
+      </c>
+      <c r="E35" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2745</v>
+      </c>
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" t="s">
+        <v>113</v>
+      </c>
+      <c r="E36" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>2746</v>
+      </c>
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E37" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>2747</v>
+      </c>
+      <c r="B38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38" t="s">
+        <v>114</v>
+      </c>
+      <c r="E38" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>2748</v>
+      </c>
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39" t="s">
+        <v>115</v>
+      </c>
+      <c r="E39" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>2749</v>
+      </c>
+      <c r="B40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" t="s">
+        <v>26</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E40" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>2750</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" t="s">
+        <v>27</v>
+      </c>
+      <c r="D41" t="s">
+        <v>116</v>
+      </c>
+      <c r="E41" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>2751</v>
+      </c>
+      <c r="B42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" t="s">
+        <v>27</v>
+      </c>
+      <c r="D42" t="s">
+        <v>117</v>
+      </c>
+      <c r="E42" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>2752</v>
+      </c>
+      <c r="B43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" t="s">
+        <v>27</v>
+      </c>
+      <c r="D43" t="s">
+        <v>118</v>
+      </c>
+      <c r="E43" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>2753</v>
+      </c>
+      <c r="B44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" t="s">
+        <v>28</v>
+      </c>
+      <c r="D44" t="s">
+        <v>29</v>
+      </c>
+      <c r="E44" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>2754</v>
+      </c>
+      <c r="B45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" t="s">
+        <v>28</v>
+      </c>
+      <c r="D45" t="s">
+        <v>119</v>
+      </c>
+      <c r="E45" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>2755</v>
+      </c>
+      <c r="B46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" t="s">
+        <v>28</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E46" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>2756</v>
+      </c>
+      <c r="B47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" t="s">
+        <v>30</v>
+      </c>
+      <c r="D47" t="s">
+        <v>120</v>
+      </c>
+      <c r="E47" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>2757</v>
+      </c>
+      <c r="B48" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" t="s">
+        <v>30</v>
+      </c>
+      <c r="D48" t="s">
+        <v>121</v>
+      </c>
+      <c r="E48" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>2758</v>
+      </c>
+      <c r="B49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" t="s">
+        <v>30</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E49" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>2759</v>
+      </c>
+      <c r="B50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" t="s">
         <v>31</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D50" t="s">
+        <v>122</v>
+      </c>
+      <c r="E50" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>2760</v>
+      </c>
+      <c r="B51" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" t="s">
+        <v>31</v>
+      </c>
+      <c r="D51" t="s">
+        <v>123</v>
+      </c>
+      <c r="E51" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>2761</v>
+      </c>
+      <c r="B52" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" t="s">
+        <v>31</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E52" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>2762</v>
+      </c>
+      <c r="B53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="1">
-        <v>44967.332310798607</v>
+      <c r="D53" t="s">
+        <v>100</v>
+      </c>
+      <c r="E53" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>2763</v>
+      </c>
+      <c r="B54" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" t="s">
+        <v>32</v>
+      </c>
+      <c r="D54" t="s">
+        <v>101</v>
+      </c>
+      <c r="E54" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>2764</v>
+      </c>
+      <c r="B55" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" t="s">
+        <v>32</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E55" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>2765</v>
+      </c>
+      <c r="B56" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" t="s">
+        <v>33</v>
+      </c>
+      <c r="D56" t="s">
+        <v>120</v>
+      </c>
+      <c r="E56" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>2766</v>
+      </c>
+      <c r="B57" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" t="s">
+        <v>33</v>
+      </c>
+      <c r="D57" t="s">
+        <v>124</v>
+      </c>
+      <c r="E57" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>2767</v>
+      </c>
+      <c r="B58" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" t="s">
+        <v>33</v>
+      </c>
+      <c r="D58" t="s">
+        <v>125</v>
+      </c>
+      <c r="E58" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>2768</v>
+      </c>
+      <c r="B59" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" t="s">
+        <v>34</v>
+      </c>
+      <c r="D59" t="s">
+        <v>126</v>
+      </c>
+      <c r="E59" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>2769</v>
+      </c>
+      <c r="B60" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" t="s">
+        <v>34</v>
+      </c>
+      <c r="D60" t="s">
+        <v>127</v>
+      </c>
+      <c r="E60" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>2770</v>
+      </c>
+      <c r="B61" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" t="s">
+        <v>34</v>
+      </c>
+      <c r="D61" t="s">
+        <v>128</v>
+      </c>
+      <c r="E61" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>2774</v>
+      </c>
+      <c r="B62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" t="s">
+        <v>35</v>
+      </c>
+      <c r="D62" t="s">
+        <v>36</v>
+      </c>
+      <c r="E62" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>2775</v>
+      </c>
+      <c r="B63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" t="s">
+        <v>35</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E63" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>2776</v>
+      </c>
+      <c r="B64" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" t="s">
+        <v>35</v>
+      </c>
+      <c r="D64" t="s">
+        <v>37</v>
+      </c>
+      <c r="E64" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>2777</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>38</v>
+      </c>
+      <c r="D65" t="s">
+        <v>129</v>
+      </c>
+      <c r="E65" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>2778</v>
+      </c>
+      <c r="B66" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66" t="s">
+        <v>38</v>
+      </c>
+      <c r="D66" t="s">
+        <v>130</v>
+      </c>
+      <c r="E66" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>2779</v>
+      </c>
+      <c r="B67" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" t="s">
+        <v>38</v>
+      </c>
+      <c r="D67" t="s">
+        <v>131</v>
+      </c>
+      <c r="E67" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>2780</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>39</v>
+      </c>
+      <c r="D68" t="s">
+        <v>40</v>
+      </c>
+      <c r="E68" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>2781</v>
+      </c>
+      <c r="B69" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" t="s">
+        <v>39</v>
+      </c>
+      <c r="D69" t="s">
+        <v>41</v>
+      </c>
+      <c r="E69" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>2782</v>
+      </c>
+      <c r="B70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" t="s">
+        <v>39</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E70" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>2783</v>
+      </c>
+      <c r="B71" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71" t="s">
+        <v>42</v>
+      </c>
+      <c r="D71" t="s">
+        <v>43</v>
+      </c>
+      <c r="E71" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>2784</v>
+      </c>
+      <c r="B72" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72" t="s">
+        <v>42</v>
+      </c>
+      <c r="D72" t="s">
+        <v>44</v>
+      </c>
+      <c r="E72" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>2785</v>
+      </c>
+      <c r="B73" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" t="s">
+        <v>42</v>
+      </c>
+      <c r="D73" t="s">
+        <v>44</v>
+      </c>
+      <c r="E73" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>2786</v>
+      </c>
+      <c r="B74" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" t="s">
+        <v>45</v>
+      </c>
+      <c r="D74" t="s">
+        <v>100</v>
+      </c>
+      <c r="E74" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>2787</v>
+      </c>
+      <c r="B75" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" t="s">
+        <v>45</v>
+      </c>
+      <c r="D75" t="s">
+        <v>101</v>
+      </c>
+      <c r="E75" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>2788</v>
+      </c>
+      <c r="B76" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" t="s">
+        <v>45</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E76" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>2792</v>
+      </c>
+      <c r="B77" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77" t="s">
+        <v>46</v>
+      </c>
+      <c r="D77" t="s">
+        <v>132</v>
+      </c>
+      <c r="E77" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>2793</v>
+      </c>
+      <c r="B78" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" t="s">
+        <v>46</v>
+      </c>
+      <c r="D78" t="s">
+        <v>133</v>
+      </c>
+      <c r="E78" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>2794</v>
+      </c>
+      <c r="B79" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" t="s">
+        <v>46</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E79" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>2795</v>
+      </c>
+      <c r="B80" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80" t="s">
+        <v>47</v>
+      </c>
+      <c r="D80" t="s">
+        <v>134</v>
+      </c>
+      <c r="E80" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>2796</v>
+      </c>
+      <c r="B81" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" t="s">
+        <v>47</v>
+      </c>
+      <c r="D81" t="s">
+        <v>134</v>
+      </c>
+      <c r="E81" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>2797</v>
+      </c>
+      <c r="B82" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82" t="s">
+        <v>47</v>
+      </c>
+      <c r="D82" t="s">
+        <v>134</v>
+      </c>
+      <c r="E82" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>2798</v>
+      </c>
+      <c r="B83" t="s">
+        <v>5</v>
+      </c>
+      <c r="C83" t="s">
+        <v>48</v>
+      </c>
+      <c r="D83" t="s">
+        <v>135</v>
+      </c>
+      <c r="E83" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>2799</v>
+      </c>
+      <c r="B84" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84" t="s">
+        <v>48</v>
+      </c>
+      <c r="D84" t="s">
+        <v>135</v>
+      </c>
+      <c r="E84" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>2800</v>
+      </c>
+      <c r="B85" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" t="s">
+        <v>48</v>
+      </c>
+      <c r="D85" t="s">
+        <v>135</v>
+      </c>
+      <c r="E85" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>2801</v>
+      </c>
+      <c r="B86" t="s">
+        <v>5</v>
+      </c>
+      <c r="C86" t="s">
+        <v>49</v>
+      </c>
+      <c r="D86" t="s">
+        <v>136</v>
+      </c>
+      <c r="E86" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>2802</v>
+      </c>
+      <c r="B87" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87" t="s">
+        <v>49</v>
+      </c>
+      <c r="D87" t="s">
+        <v>136</v>
+      </c>
+      <c r="E87" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>2803</v>
+      </c>
+      <c r="B88" t="s">
+        <v>8</v>
+      </c>
+      <c r="C88" t="s">
+        <v>49</v>
+      </c>
+      <c r="D88" t="s">
+        <v>136</v>
+      </c>
+      <c r="E88" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>2804</v>
+      </c>
+      <c r="B89" t="s">
+        <v>5</v>
+      </c>
+      <c r="C89" t="s">
+        <v>50</v>
+      </c>
+      <c r="D89" t="s">
+        <v>137</v>
+      </c>
+      <c r="E89" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>2805</v>
+      </c>
+      <c r="B90" t="s">
+        <v>7</v>
+      </c>
+      <c r="C90" t="s">
+        <v>50</v>
+      </c>
+      <c r="D90" t="s">
+        <v>138</v>
+      </c>
+      <c r="E90" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>2806</v>
+      </c>
+      <c r="B91" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" t="s">
+        <v>50</v>
+      </c>
+      <c r="D91" t="s">
+        <v>138</v>
+      </c>
+      <c r="E91" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>2807</v>
+      </c>
+      <c r="B92" t="s">
+        <v>5</v>
+      </c>
+      <c r="C92" t="s">
+        <v>51</v>
+      </c>
+      <c r="D92" t="s">
+        <v>139</v>
+      </c>
+      <c r="E92" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>2808</v>
+      </c>
+      <c r="B93" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93" t="s">
+        <v>51</v>
+      </c>
+      <c r="D93" t="s">
+        <v>140</v>
+      </c>
+      <c r="E93" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>2809</v>
+      </c>
+      <c r="B94" t="s">
+        <v>8</v>
+      </c>
+      <c r="C94" t="s">
+        <v>51</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E94" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>2810</v>
+      </c>
+      <c r="B95" t="s">
+        <v>5</v>
+      </c>
+      <c r="C95" t="s">
+        <v>52</v>
+      </c>
+      <c r="D95" t="s">
+        <v>141</v>
+      </c>
+      <c r="E95" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>2811</v>
+      </c>
+      <c r="B96" t="s">
+        <v>7</v>
+      </c>
+      <c r="C96" t="s">
+        <v>52</v>
+      </c>
+      <c r="D96" t="s">
+        <v>142</v>
+      </c>
+      <c r="E96" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>2812</v>
+      </c>
+      <c r="B97" t="s">
+        <v>8</v>
+      </c>
+      <c r="C97" t="s">
+        <v>52</v>
+      </c>
+      <c r="D97" t="s">
+        <v>143</v>
+      </c>
+      <c r="E97" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>2813</v>
+      </c>
+      <c r="B98" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98" t="s">
+        <v>53</v>
+      </c>
+      <c r="D98" t="s">
+        <v>54</v>
+      </c>
+      <c r="E98" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>2814</v>
+      </c>
+      <c r="B99" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99" t="s">
+        <v>53</v>
+      </c>
+      <c r="D99" t="s">
+        <v>55</v>
+      </c>
+      <c r="E99" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>2815</v>
+      </c>
+      <c r="B100" t="s">
+        <v>7</v>
+      </c>
+      <c r="C100" t="s">
+        <v>53</v>
+      </c>
+      <c r="D100" t="s">
+        <v>55</v>
+      </c>
+      <c r="E100" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>2816</v>
+      </c>
+      <c r="B101" t="s">
+        <v>5</v>
+      </c>
+      <c r="C101" t="s">
+        <v>56</v>
+      </c>
+      <c r="D101" t="s">
+        <v>144</v>
+      </c>
+      <c r="E101" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>2817</v>
+      </c>
+      <c r="B102" t="s">
+        <v>7</v>
+      </c>
+      <c r="C102" t="s">
+        <v>56</v>
+      </c>
+      <c r="D102" t="s">
+        <v>145</v>
+      </c>
+      <c r="E102" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>2818</v>
+      </c>
+      <c r="B103" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103" t="s">
+        <v>56</v>
+      </c>
+      <c r="D103" t="s">
+        <v>146</v>
+      </c>
+      <c r="E103" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>2819</v>
+      </c>
+      <c r="B104" t="s">
+        <v>5</v>
+      </c>
+      <c r="C104" t="s">
+        <v>57</v>
+      </c>
+      <c r="D104" t="s">
+        <v>100</v>
+      </c>
+      <c r="E104" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>2820</v>
+      </c>
+      <c r="B105" t="s">
+        <v>7</v>
+      </c>
+      <c r="C105" t="s">
+        <v>57</v>
+      </c>
+      <c r="D105" t="s">
+        <v>101</v>
+      </c>
+      <c r="E105" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>2821</v>
+      </c>
+      <c r="B106" t="s">
+        <v>8</v>
+      </c>
+      <c r="C106" t="s">
+        <v>57</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E106" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>2822</v>
+      </c>
+      <c r="B107" t="s">
+        <v>5</v>
+      </c>
+      <c r="C107" t="s">
+        <v>58</v>
+      </c>
+      <c r="D107" t="s">
+        <v>147</v>
+      </c>
+      <c r="E107" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>2823</v>
+      </c>
+      <c r="B108" t="s">
+        <v>7</v>
+      </c>
+      <c r="C108" t="s">
+        <v>58</v>
+      </c>
+      <c r="D108" t="s">
+        <v>148</v>
+      </c>
+      <c r="E108" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>2824</v>
+      </c>
+      <c r="B109" t="s">
+        <v>8</v>
+      </c>
+      <c r="C109" t="s">
+        <v>58</v>
+      </c>
+      <c r="D109" t="s">
+        <v>149</v>
+      </c>
+      <c r="E109" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>2825</v>
+      </c>
+      <c r="B110" t="s">
+        <v>5</v>
+      </c>
+      <c r="C110" t="s">
+        <v>59</v>
+      </c>
+      <c r="D110" t="s">
+        <v>150</v>
+      </c>
+      <c r="E110" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>2826</v>
+      </c>
+      <c r="B111" t="s">
+        <v>7</v>
+      </c>
+      <c r="C111" t="s">
+        <v>59</v>
+      </c>
+      <c r="D111" t="s">
+        <v>151</v>
+      </c>
+      <c r="E111" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>2827</v>
+      </c>
+      <c r="B112" t="s">
+        <v>8</v>
+      </c>
+      <c r="C112" t="s">
+        <v>59</v>
+      </c>
+      <c r="D112" t="s">
+        <v>152</v>
+      </c>
+      <c r="E112" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>2828</v>
+      </c>
+      <c r="B113" t="s">
+        <v>5</v>
+      </c>
+      <c r="C113" t="s">
+        <v>60</v>
+      </c>
+      <c r="D113" t="s">
+        <v>153</v>
+      </c>
+      <c r="E113" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>2829</v>
+      </c>
+      <c r="B114" t="s">
+        <v>7</v>
+      </c>
+      <c r="C114" t="s">
+        <v>60</v>
+      </c>
+      <c r="D114" t="s">
+        <v>154</v>
+      </c>
+      <c r="E114" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>2830</v>
+      </c>
+      <c r="B115" t="s">
+        <v>8</v>
+      </c>
+      <c r="C115" t="s">
+        <v>60</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E115" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>2831</v>
+      </c>
+      <c r="B116" t="s">
+        <v>5</v>
+      </c>
+      <c r="C116" t="s">
+        <v>61</v>
+      </c>
+      <c r="D116" t="s">
+        <v>155</v>
+      </c>
+      <c r="E116" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>2832</v>
+      </c>
+      <c r="B117" t="s">
+        <v>7</v>
+      </c>
+      <c r="C117" t="s">
+        <v>61</v>
+      </c>
+      <c r="D117" t="s">
+        <v>156</v>
+      </c>
+      <c r="E117" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>2833</v>
+      </c>
+      <c r="B118" t="s">
+        <v>8</v>
+      </c>
+      <c r="C118" t="s">
+        <v>61</v>
+      </c>
+      <c r="D118" t="s">
+        <v>157</v>
+      </c>
+      <c r="E118" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>2834</v>
+      </c>
+      <c r="B119" t="s">
+        <v>5</v>
+      </c>
+      <c r="C119" t="s">
+        <v>62</v>
+      </c>
+      <c r="D119" t="s">
+        <v>158</v>
+      </c>
+      <c r="E119" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>2835</v>
+      </c>
+      <c r="B120" t="s">
+        <v>7</v>
+      </c>
+      <c r="C120" t="s">
+        <v>62</v>
+      </c>
+      <c r="D120" t="s">
+        <v>159</v>
+      </c>
+      <c r="E120" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>2836</v>
+      </c>
+      <c r="B121" t="s">
+        <v>8</v>
+      </c>
+      <c r="C121" t="s">
+        <v>62</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E121" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>2837</v>
+      </c>
+      <c r="B122" t="s">
+        <v>5</v>
+      </c>
+      <c r="C122" t="s">
+        <v>63</v>
+      </c>
+      <c r="D122" t="s">
+        <v>160</v>
+      </c>
+      <c r="E122" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>2838</v>
+      </c>
+      <c r="B123" t="s">
+        <v>7</v>
+      </c>
+      <c r="C123" t="s">
+        <v>63</v>
+      </c>
+      <c r="D123" t="s">
+        <v>161</v>
+      </c>
+      <c r="E123" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>2839</v>
+      </c>
+      <c r="B124" t="s">
+        <v>8</v>
+      </c>
+      <c r="C124" t="s">
+        <v>63</v>
+      </c>
+      <c r="D124" t="s">
+        <v>162</v>
+      </c>
+      <c r="E124" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>2840</v>
+      </c>
+      <c r="B125" t="s">
+        <v>5</v>
+      </c>
+      <c r="C125" t="s">
+        <v>64</v>
+      </c>
+      <c r="D125" t="s">
+        <v>100</v>
+      </c>
+      <c r="E125" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>2841</v>
+      </c>
+      <c r="B126" t="s">
+        <v>7</v>
+      </c>
+      <c r="C126" t="s">
+        <v>64</v>
+      </c>
+      <c r="D126" t="s">
+        <v>101</v>
+      </c>
+      <c r="E126" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>2842</v>
+      </c>
+      <c r="B127" t="s">
+        <v>8</v>
+      </c>
+      <c r="C127" t="s">
+        <v>64</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E127" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>2843</v>
+      </c>
+      <c r="B128" t="s">
+        <v>5</v>
+      </c>
+      <c r="C128" t="s">
+        <v>65</v>
+      </c>
+      <c r="D128" t="s">
+        <v>163</v>
+      </c>
+      <c r="E128" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>2844</v>
+      </c>
+      <c r="B129" t="s">
+        <v>7</v>
+      </c>
+      <c r="C129" t="s">
+        <v>65</v>
+      </c>
+      <c r="D129" t="s">
+        <v>164</v>
+      </c>
+      <c r="E129" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>2845</v>
+      </c>
+      <c r="B130" t="s">
+        <v>8</v>
+      </c>
+      <c r="C130" t="s">
+        <v>65</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E130" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>2846</v>
+      </c>
+      <c r="B131" t="s">
+        <v>5</v>
+      </c>
+      <c r="C131" t="s">
+        <v>66</v>
+      </c>
+      <c r="D131" t="s">
+        <v>67</v>
+      </c>
+      <c r="E131" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>2847</v>
+      </c>
+      <c r="B132" t="s">
+        <v>8</v>
+      </c>
+      <c r="C132" t="s">
+        <v>66</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E132" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>2848</v>
+      </c>
+      <c r="B133" t="s">
+        <v>7</v>
+      </c>
+      <c r="C133" t="s">
+        <v>66</v>
+      </c>
+      <c r="D133" t="s">
+        <v>68</v>
+      </c>
+      <c r="E133" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>2849</v>
+      </c>
+      <c r="B134" t="s">
+        <v>5</v>
+      </c>
+      <c r="C134" t="s">
+        <v>69</v>
+      </c>
+      <c r="D134" t="s">
+        <v>165</v>
+      </c>
+      <c r="E134" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>2850</v>
+      </c>
+      <c r="B135" t="s">
+        <v>7</v>
+      </c>
+      <c r="C135" t="s">
+        <v>69</v>
+      </c>
+      <c r="D135" t="s">
+        <v>166</v>
+      </c>
+      <c r="E135" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>2851</v>
+      </c>
+      <c r="B136" t="s">
+        <v>8</v>
+      </c>
+      <c r="C136" t="s">
+        <v>69</v>
+      </c>
+      <c r="D136" t="s">
+        <v>167</v>
+      </c>
+      <c r="E136" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>2852</v>
+      </c>
+      <c r="B137" t="s">
+        <v>5</v>
+      </c>
+      <c r="C137" t="s">
+        <v>70</v>
+      </c>
+      <c r="D137" t="s">
+        <v>168</v>
+      </c>
+      <c r="E137" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>2853</v>
+      </c>
+      <c r="B138" t="s">
+        <v>7</v>
+      </c>
+      <c r="C138" t="s">
+        <v>70</v>
+      </c>
+      <c r="D138" t="s">
+        <v>169</v>
+      </c>
+      <c r="E138" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>2854</v>
+      </c>
+      <c r="B139" t="s">
+        <v>8</v>
+      </c>
+      <c r="C139" t="s">
+        <v>70</v>
+      </c>
+      <c r="D139" t="s">
+        <v>170</v>
+      </c>
+      <c r="E139" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>2855</v>
+      </c>
+      <c r="B140" t="s">
+        <v>5</v>
+      </c>
+      <c r="C140" t="s">
+        <v>71</v>
+      </c>
+      <c r="D140" t="s">
+        <v>72</v>
+      </c>
+      <c r="E140" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>2856</v>
+      </c>
+      <c r="B141" t="s">
+        <v>7</v>
+      </c>
+      <c r="C141" t="s">
+        <v>71</v>
+      </c>
+      <c r="D141" t="s">
+        <v>73</v>
+      </c>
+      <c r="E141" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>2857</v>
+      </c>
+      <c r="B142" t="s">
+        <v>8</v>
+      </c>
+      <c r="C142" t="s">
+        <v>71</v>
+      </c>
+      <c r="D142" t="s">
+        <v>74</v>
+      </c>
+      <c r="E142" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>2858</v>
+      </c>
+      <c r="B143" t="s">
+        <v>5</v>
+      </c>
+      <c r="C143" t="s">
+        <v>75</v>
+      </c>
+      <c r="D143" t="s">
+        <v>171</v>
+      </c>
+      <c r="E143" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>2859</v>
+      </c>
+      <c r="B144" t="s">
+        <v>7</v>
+      </c>
+      <c r="C144" t="s">
+        <v>75</v>
+      </c>
+      <c r="D144" t="s">
+        <v>172</v>
+      </c>
+      <c r="E144" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>2860</v>
+      </c>
+      <c r="B145" t="s">
+        <v>8</v>
+      </c>
+      <c r="C145" t="s">
+        <v>75</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E145" s="1">
+        <v>44942.658889317128</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>2861</v>
+      </c>
+      <c r="B146" t="s">
+        <v>5</v>
+      </c>
+      <c r="C146" t="s">
+        <v>76</v>
+      </c>
+      <c r="D146" t="s">
+        <v>77</v>
+      </c>
+      <c r="E146" s="1">
+        <v>44973.361073460648</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>2862</v>
+      </c>
+      <c r="B147" t="s">
+        <v>8</v>
+      </c>
+      <c r="C147" t="s">
+        <v>76</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E147" s="1">
+        <v>44973.361073495369</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>2863</v>
+      </c>
+      <c r="B148" t="s">
+        <v>7</v>
+      </c>
+      <c r="C148" t="s">
+        <v>76</v>
+      </c>
+      <c r="D148" t="s">
+        <v>78</v>
+      </c>
+      <c r="E148" s="1">
+        <v>44973.361073576394</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>2864</v>
+      </c>
+      <c r="B149" t="s">
+        <v>5</v>
+      </c>
+      <c r="C149" t="s">
+        <v>79</v>
+      </c>
+      <c r="D149" t="s">
+        <v>80</v>
+      </c>
+      <c r="E149" s="1">
+        <v>44973.37616010417</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>2865</v>
+      </c>
+      <c r="B150" t="s">
+        <v>8</v>
+      </c>
+      <c r="C150" t="s">
+        <v>79</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E150" s="1">
+        <v>44973.376160185187</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>2866</v>
+      </c>
+      <c r="B151" t="s">
+        <v>7</v>
+      </c>
+      <c r="C151" t="s">
+        <v>79</v>
+      </c>
+      <c r="D151" t="s">
+        <v>81</v>
+      </c>
+      <c r="E151" s="1">
+        <v>44973.376160266205</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>2870</v>
+      </c>
+      <c r="B152" t="s">
+        <v>5</v>
+      </c>
+      <c r="C152" t="s">
+        <v>82</v>
+      </c>
+      <c r="D152" t="s">
+        <v>83</v>
+      </c>
+      <c r="E152" s="1">
+        <v>44973.376361608804</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>2871</v>
+      </c>
+      <c r="B153" t="s">
+        <v>8</v>
+      </c>
+      <c r="C153" t="s">
+        <v>82</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E153" s="1">
+        <v>44973.376361689821</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>2872</v>
+      </c>
+      <c r="B154" t="s">
+        <v>7</v>
+      </c>
+      <c r="C154" t="s">
+        <v>82</v>
+      </c>
+      <c r="D154" t="s">
+        <v>84</v>
+      </c>
+      <c r="E154" s="1">
+        <v>44973.376361724542</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>2873</v>
+      </c>
+      <c r="B155" t="s">
+        <v>5</v>
+      </c>
+      <c r="C155" t="s">
+        <v>85</v>
+      </c>
+      <c r="D155" t="s">
+        <v>86</v>
+      </c>
+      <c r="E155" s="1">
+        <v>44973.376442708337</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>2874</v>
+      </c>
+      <c r="B156" t="s">
+        <v>8</v>
+      </c>
+      <c r="C156" t="s">
+        <v>85</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E156" s="1">
+        <v>44973.376442905093</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>2875</v>
+      </c>
+      <c r="B157" t="s">
+        <v>7</v>
+      </c>
+      <c r="C157" t="s">
+        <v>85</v>
+      </c>
+      <c r="D157" t="s">
+        <v>87</v>
+      </c>
+      <c r="E157" s="1">
+        <v>44973.376443020832</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>2876</v>
+      </c>
+      <c r="B158" t="s">
+        <v>5</v>
+      </c>
+      <c r="C158" t="s">
+        <v>88</v>
+      </c>
+      <c r="D158" t="s">
+        <v>89</v>
+      </c>
+      <c r="E158" s="1">
+        <v>44973.376489120368</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>2877</v>
+      </c>
+      <c r="B159" t="s">
+        <v>8</v>
+      </c>
+      <c r="C159" t="s">
+        <v>88</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E159" s="1">
+        <v>44973.376489155089</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>2878</v>
+      </c>
+      <c r="B160" t="s">
+        <v>7</v>
+      </c>
+      <c r="C160" t="s">
+        <v>88</v>
+      </c>
+      <c r="D160" t="s">
+        <v>90</v>
+      </c>
+      <c r="E160" s="1">
+        <v>44973.376489236107</v>
       </c>
     </row>
   </sheetData>

--- a/document/sys_common_lang.xlsx
+++ b/document/sys_common_lang.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\App Develop\VS2023\LaplaceNet\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A681E2C-0CA5-4377-8A2A-86990B31A9EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C2916B-6265-4792-A1E3-93B65DB69B24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="205">
   <si>
     <t>id</t>
   </si>
@@ -638,6 +638,37 @@
   </si>
   <si>
     <t>Budget actual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu.ficoconcurexpense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu.ficoconcurbudget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预算管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Concur Budget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Concur Expense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>予算管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>費用管理</t>
+  </si>
+  <si>
+    <t>费用管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -648,7 +679,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -663,6 +694,18 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -692,10 +735,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1010,15 +1055,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E160"/>
+  <dimension ref="A1:E166"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="D145" sqref="D145"/>
+      <selection activeCell="C160" sqref="C160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="47.85546875" customWidth="1"/>
+    <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1038,7 +1087,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2708</v>
       </c>
@@ -3739,6 +3788,108 @@
       </c>
       <c r="E160" s="1">
         <v>44973.376489236107</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>2879</v>
+      </c>
+      <c r="B161" t="s">
+        <v>5</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E161" s="1">
+        <v>44973.376489236114</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>2880</v>
+      </c>
+      <c r="B162" t="s">
+        <v>8</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E162" s="1">
+        <v>44973.37648929398</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>2881</v>
+      </c>
+      <c r="B163" t="s">
+        <v>7</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D163" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E163" s="1">
+        <v>44973.376489351853</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>2882</v>
+      </c>
+      <c r="B164" t="s">
+        <v>5</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E164" s="1">
+        <v>44973.376489409726</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>2883</v>
+      </c>
+      <c r="B165" t="s">
+        <v>8</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E165" s="1">
+        <v>44973.376489467591</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>2884</v>
+      </c>
+      <c r="B166" t="s">
+        <v>7</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D166" t="s">
+        <v>203</v>
+      </c>
+      <c r="E166" s="1">
+        <v>44973.376489525464</v>
       </c>
     </row>
   </sheetData>
